--- a/output/测试附件excel.xlsx
+++ b/output/测试附件excel.xlsx
@@ -15,12 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="8">
   <si>
-    <t>chuanglan@253</t>
+    <t>abcdefg</t>
   </si>
   <si>
-    <t>2020-01-01</t>
+    <t>a这是一个测试，文本内容</t>
+  </si>
+  <si>
+    <t>2025-01-01</t>
   </si>
   <si>
     <t>指标1</t>
@@ -423,26 +426,26 @@
   <cols>
     <col min="1" max="1" width="6.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -456,10 +459,10 @@
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -473,10 +476,10 @@
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -490,10 +493,10 @@
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -507,10 +510,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -524,10 +527,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -541,10 +544,10 @@
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -558,10 +561,10 @@
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -575,10 +578,10 @@
         <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -592,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -609,10 +612,10 @@
         <v>0</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -626,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -643,10 +646,10 @@
         <v>0</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -660,10 +663,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -677,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -694,10 +697,10 @@
         <v>0</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -711,10 +714,10 @@
         <v>0</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -728,10 +731,10 @@
         <v>0</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -745,10 +748,10 @@
         <v>0</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -762,10 +765,10 @@
         <v>0</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -779,10 +782,10 @@
         <v>0</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -796,10 +799,10 @@
         <v>0</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -813,10 +816,10 @@
         <v>0</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -830,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -847,10 +850,10 @@
         <v>0</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -864,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -881,10 +884,10 @@
         <v>0</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -898,10 +901,10 @@
         <v>0</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -915,10 +918,10 @@
         <v>0</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -932,10 +935,10 @@
         <v>0</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -949,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -966,10 +969,10 @@
         <v>0</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -983,10 +986,10 @@
         <v>0</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1000,10 +1003,10 @@
         <v>0</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1017,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1034,10 +1037,10 @@
         <v>0</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1051,10 +1054,10 @@
         <v>0</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1068,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1085,10 +1088,10 @@
         <v>0</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1102,10 +1105,10 @@
         <v>0</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1119,10 +1122,10 @@
         <v>0</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1136,10 +1139,10 @@
         <v>0</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1153,10 +1156,10 @@
         <v>0</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1170,10 +1173,10 @@
         <v>0</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1187,10 +1190,10 @@
         <v>0</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1204,10 +1207,10 @@
         <v>0</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1221,10 +1224,10 @@
         <v>0</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1238,10 +1241,10 @@
         <v>0</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1255,10 +1258,10 @@
         <v>0</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1272,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1289,10 +1292,10 @@
         <v>0</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1306,10 +1309,10 @@
         <v>0</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1323,10 +1326,10 @@
         <v>0</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1340,10 +1343,10 @@
         <v>0</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1357,10 +1360,10 @@
         <v>0</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1374,10 +1377,10 @@
         <v>0</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1391,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1408,10 +1411,10 @@
         <v>0</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1425,10 +1428,10 @@
         <v>0</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1442,10 +1445,10 @@
         <v>0</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1459,10 +1462,10 @@
         <v>0</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1476,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1493,10 +1496,10 @@
         <v>0</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1510,10 +1513,10 @@
         <v>0</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1527,10 +1530,10 @@
         <v>0</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1544,10 +1547,10 @@
         <v>0</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1561,10 +1564,10 @@
         <v>0</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1578,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1595,10 +1598,10 @@
         <v>0</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1612,10 +1615,10 @@
         <v>0</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1629,10 +1632,10 @@
         <v>0</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1646,10 +1649,10 @@
         <v>0</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1663,10 +1666,10 @@
         <v>0</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1680,10 +1683,10 @@
         <v>0</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1697,10 +1700,10 @@
         <v>0</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1714,10 +1717,10 @@
         <v>0</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1731,10 +1734,10 @@
         <v>0</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1748,10 +1751,10 @@
         <v>0</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1765,10 +1768,10 @@
         <v>0</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1782,10 +1785,10 @@
         <v>0</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1799,10 +1802,10 @@
         <v>0</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1816,10 +1819,10 @@
         <v>0</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1833,10 +1836,10 @@
         <v>0</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1850,10 +1853,10 @@
         <v>0</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1867,10 +1870,10 @@
         <v>0</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1884,10 +1887,10 @@
         <v>0</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1901,10 +1904,10 @@
         <v>0</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1918,10 +1921,10 @@
         <v>0</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1935,10 +1938,10 @@
         <v>0</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1952,10 +1955,10 @@
         <v>0</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -1969,10 +1972,10 @@
         <v>0</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -1986,10 +1989,10 @@
         <v>0</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2003,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2020,10 +2023,10 @@
         <v>0</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2037,10 +2040,10 @@
         <v>0</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2054,10 +2057,10 @@
         <v>0</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2071,10 +2074,10 @@
         <v>0</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2088,10 +2091,10 @@
         <v>0</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2105,10 +2108,10 @@
         <v>0</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2122,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2139,10 +2142,10 @@
         <v>0</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2195,26 +2198,26 @@
   <cols>
     <col min="1" max="1" width="6.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="17.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2228,10 +2231,10 @@
         <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2245,10 +2248,10 @@
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2262,10 +2265,10 @@
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2279,10 +2282,10 @@
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2296,10 +2299,10 @@
         <v>0</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2313,10 +2316,10 @@
         <v>0</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2330,10 +2333,10 @@
         <v>0</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2347,10 +2350,10 @@
         <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2364,10 +2367,10 @@
         <v>0</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2381,10 +2384,10 @@
         <v>0</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2398,10 +2401,10 @@
         <v>0</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2415,10 +2418,10 @@
         <v>0</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2432,10 +2435,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2449,10 +2452,10 @@
         <v>0</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2466,10 +2469,10 @@
         <v>0</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2483,10 +2486,10 @@
         <v>0</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2500,10 +2503,10 @@
         <v>0</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2517,10 +2520,10 @@
         <v>0</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2534,10 +2537,10 @@
         <v>0</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2551,10 +2554,10 @@
         <v>0</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2568,10 +2571,10 @@
         <v>0</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2585,10 +2588,10 @@
         <v>0</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2602,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2619,10 +2622,10 @@
         <v>0</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2636,10 +2639,10 @@
         <v>0</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2653,10 +2656,10 @@
         <v>0</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2670,10 +2673,10 @@
         <v>0</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2687,10 +2690,10 @@
         <v>0</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -2704,10 +2707,10 @@
         <v>0</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2721,10 +2724,10 @@
         <v>0</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2738,10 +2741,10 @@
         <v>0</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2755,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2772,10 +2775,10 @@
         <v>0</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2789,10 +2792,10 @@
         <v>0</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2806,10 +2809,10 @@
         <v>0</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -2823,10 +2826,10 @@
         <v>0</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2840,10 +2843,10 @@
         <v>0</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -2857,10 +2860,10 @@
         <v>0</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -2874,10 +2877,10 @@
         <v>0</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -2891,10 +2894,10 @@
         <v>0</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -2908,10 +2911,10 @@
         <v>0</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -2925,10 +2928,10 @@
         <v>0</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -2942,10 +2945,10 @@
         <v>0</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -2959,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -2976,10 +2979,10 @@
         <v>0</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2993,10 +2996,10 @@
         <v>0</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3010,10 +3013,10 @@
         <v>0</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -3027,10 +3030,10 @@
         <v>0</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3044,10 +3047,10 @@
         <v>0</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -3061,10 +3064,10 @@
         <v>0</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3078,10 +3081,10 @@
         <v>0</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3095,10 +3098,10 @@
         <v>0</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3112,10 +3115,10 @@
         <v>0</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3129,10 +3132,10 @@
         <v>0</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -3146,10 +3149,10 @@
         <v>0</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3163,10 +3166,10 @@
         <v>0</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -3180,10 +3183,10 @@
         <v>0</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -3197,10 +3200,10 @@
         <v>0</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3214,10 +3217,10 @@
         <v>0</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3231,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3248,10 +3251,10 @@
         <v>0</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3265,10 +3268,10 @@
         <v>0</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -3282,10 +3285,10 @@
         <v>0</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -3299,10 +3302,10 @@
         <v>0</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -3316,10 +3319,10 @@
         <v>0</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -3333,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -3350,10 +3353,10 @@
         <v>0</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -3367,10 +3370,10 @@
         <v>0</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -3384,10 +3387,10 @@
         <v>0</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -3401,10 +3404,10 @@
         <v>0</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -3418,10 +3421,10 @@
         <v>0</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -3435,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -3452,10 +3455,10 @@
         <v>0</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -3469,10 +3472,10 @@
         <v>0</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -3486,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -3503,10 +3506,10 @@
         <v>0</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -3520,10 +3523,10 @@
         <v>0</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -3537,10 +3540,10 @@
         <v>0</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -3554,10 +3557,10 @@
         <v>0</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -3571,10 +3574,10 @@
         <v>0</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -3588,10 +3591,10 @@
         <v>0</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -3605,10 +3608,10 @@
         <v>0</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -3622,10 +3625,10 @@
         <v>0</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -3639,10 +3642,10 @@
         <v>0</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -3656,10 +3659,10 @@
         <v>0</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -3673,10 +3676,10 @@
         <v>0</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -3690,10 +3693,10 @@
         <v>0</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -3707,10 +3710,10 @@
         <v>0</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -3724,10 +3727,10 @@
         <v>0</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -3741,10 +3744,10 @@
         <v>0</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -3758,10 +3761,10 @@
         <v>0</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -3775,10 +3778,10 @@
         <v>0</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -3792,10 +3795,10 @@
         <v>0</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -3809,10 +3812,10 @@
         <v>0</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -3826,10 +3829,10 @@
         <v>0</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -3843,10 +3846,10 @@
         <v>0</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -3860,10 +3863,10 @@
         <v>0</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -3877,10 +3880,10 @@
         <v>0</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -3894,10 +3897,10 @@
         <v>0</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -3911,10 +3914,10 @@
         <v>0</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
